--- a/Area_de_Proceso-_REQM/SOLCREQM/SOLCREQM_V1.1_2015.xlsx
+++ b/Area_de_Proceso-_REQM/SOLCREQM/SOLCREQM_V1.1_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_REQM\SOLCREQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_REQM\SOLCREQM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>SOLCREQ Solicitud de Cambios de Requerimientos</t>
-  </si>
-  <si>
-    <t>Versión: 1.0</t>
   </si>
   <si>
     <t>Fecha Efectiva: 13/10/2015</t>
@@ -325,11 +322,14 @@
   <si>
     <t>Tener muchos modulos dificultaba y aumentaba las horas hombres y los procesos de Ingeneria de manera innecesaria afectando la eficiencia de tiempo involucrado en el desarrollo del Proyecto</t>
   </si>
+  <si>
+    <t>Versión: 1.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -978,6 +978,51 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -990,50 +1035,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,37 +1119,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1136,14 +1217,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1160,79 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1739,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
@@ -1751,57 +1751,57 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:9" ht="15" customHeight="1">
-      <c r="B2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="11" t="s">
@@ -1827,71 +1827,78 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="17">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="34">
+        <v>42290</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="19">
-        <v>42290</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="17">
-        <v>2</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="D11" s="34">
         <v>42320</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>64</v>
+      <c r="H11" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="B6:H7"/>
     <mergeCell ref="B9:B10"/>
@@ -1901,13 +1908,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1929,327 +1929,356 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="C3" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="2:9" ht="25.5">
       <c r="B7" s="2"/>
       <c r="C7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="3"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:9" ht="7.5" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="2:9" hidden="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="2:9" hidden="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="5"/>
-      <c r="C13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="C13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5"/>
-      <c r="C14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57" t="s">
+      <c r="C14" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4"/>
-      <c r="C15" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
       <c r="B16" s="6"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="60"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1">
       <c r="B17" s="6"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="60"/>
+      <c r="F17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1">
       <c r="B18" s="6"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="60"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="2:7" ht="24.95" customHeight="1">
       <c r="B19" s="6"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60" t="s">
+      <c r="F19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="60"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1">
       <c r="B20" s="6"/>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="60"/>
+      <c r="F20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1">
       <c r="B21" s="6"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60" t="s">
+      <c r="F21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="60"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1">
       <c r="B22" s="6"/>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7" ht="24.95" customHeight="1">
       <c r="B23" s="6"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="2:7" ht="24.95" customHeight="1">
       <c r="B24" s="7"/>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60" t="s">
+      <c r="F24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="60"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="2:7" ht="24.95" customHeight="1">
       <c r="B25" s="7"/>
-      <c r="C25" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60" t="s">
+      <c r="C25" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="60"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:7" ht="24.95" customHeight="1">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60" t="s">
+      <c r="F26" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="60"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="2:7" ht="24.95" customHeight="1">
       <c r="B27" s="7"/>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60" t="s">
+      <c r="F27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="60"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="2:7" ht="24.95" customHeight="1">
       <c r="B28" s="6"/>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60" t="s">
+      <c r="F28" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="60"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="2:7" ht="24.95" customHeight="1">
       <c r="B29" s="8"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="60" t="s">
+      <c r="F29" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="60"/>
+      <c r="G29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C3:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:G12"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="C25:D25"/>
@@ -2258,35 +2287,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C3:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:G12"/>
-    <mergeCell ref="D7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2298,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
@@ -2319,205 +2319,212 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="18">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="B6" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
-      <c r="B6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="71"/>
+      <c r="D9" s="93"/>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1">
       <c r="B10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="84">
+        <v>61</v>
+      </c>
+      <c r="C10" s="72">
         <v>42290</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1">
       <c r="B12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="75"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="93"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="88"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+    </row>
+    <row r="16" spans="1:7" ht="50.1" customHeight="1">
+      <c r="B16" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+    </row>
+    <row r="18" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B18" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+    </row>
+    <row r="20" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B20" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="64"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-    </row>
-    <row r="16" spans="1:7" ht="50.1" customHeight="1">
-      <c r="B16" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-    </row>
-    <row r="18" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B18" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="88" t="s">
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-    </row>
-    <row r="20" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B20" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="88" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+    </row>
+    <row r="22" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B22" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+    </row>
+    <row r="24" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B24" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-    </row>
-    <row r="22" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B22" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-    </row>
-    <row r="24" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B24" s="91" t="s">
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B25" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B25" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="2:4" ht="26.25" thickBot="1">
       <c r="B26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="87"/>
+        <v>74</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -2534,13 +2541,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Area_de_Proceso-_REQM/SOLCREQM/SOLCREQM_V1.1_2015.xlsx
+++ b/Area_de_Proceso-_REQM/SOLCREQM/SOLCREQM_V1.1_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_REQM\SOLCREQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleonardo\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_REQM\SOLCREQM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>HISTORIAL DE LAS REVISIONES</t>
   </si>
@@ -226,9 +226,6 @@
     <t xml:space="preserve">Personal que autoriza la Solicitud: </t>
   </si>
   <si>
-    <t>Roger Apaestegui Ortega</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nombre del Proceso: </t>
   </si>
   <si>
@@ -245,9 +242,6 @@
   </si>
   <si>
     <t>Áreas Involucradas (stakeholders)</t>
-  </si>
-  <si>
-    <t>Este cambio generará un gran impácto en el desarrollo de la aplicación, se debe hacer los cambios y correcciones necesarias en Cronograma de Proyecto y Plan de Proyecto lo más antes posible, después de su aprobación.</t>
   </si>
   <si>
     <t>Documentos adjuntos</t>
@@ -324,6 +318,36 @@
   </si>
   <si>
     <t>Versión: 1.1</t>
+  </si>
+  <si>
+    <t>Roger Apaéstegui Ortega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este cambio generará un gran impácto en el desarrollo de la aplicación, se debe hacer los cambios y correcciones necesarias en los siguientes documentos inmediatamente después de su aprobación :  </t>
+  </si>
+  <si>
+    <t>1. PPROY_Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>2. CPROY_Cronograma del Proyecto</t>
+  </si>
+  <si>
+    <t>3. LMREQM_Lista Maestra de Requerimientos</t>
+  </si>
+  <si>
+    <t>4. MTREQM_Matriz de Trazabilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>5. Registro de Cambios en los Requerimientos</t>
+  </si>
+  <si>
+    <t>6. REGRI_Registro de Riesgos</t>
+  </si>
+  <si>
+    <t>7. TABME_Tablero de Métricas</t>
+  </si>
+  <si>
+    <t>8. FMVREQM_Ficha de Métrica de Volatilidad de Requerimientos</t>
   </si>
 </sst>
 </file>
@@ -482,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -926,6 +950,39 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -937,7 +994,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -978,51 +1035,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1035,89 +1047,176 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,14 +1253,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1200,39 +1291,50 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1739,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
@@ -1751,57 +1853,57 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:9" ht="15" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="11" t="s">
@@ -1827,78 +1929,71 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="32">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="19">
+        <v>42290</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="34">
-        <v>42290</v>
-      </c>
-      <c r="E9" s="32" t="s">
+      <c r="H9" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="32" t="s">
+      <c r="D11" s="19">
+        <v>42320</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="32">
-        <v>2</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="34">
-        <v>42320</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="B6:H7"/>
     <mergeCell ref="B9:B10"/>
@@ -1908,6 +2003,13 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1918,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:G26"/>
     </sheetView>
   </sheetViews>
@@ -1929,356 +2031,327 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:9" ht="25.5">
       <c r="B7" s="2"/>
       <c r="C7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="3"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="2:9" ht="7.5" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="2:9" hidden="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="2:9" hidden="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="5"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
       <c r="B16" s="6"/>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="37" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1">
       <c r="B17" s="6"/>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="37" t="s">
+      <c r="D17" s="59"/>
+      <c r="E17" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="37"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1">
       <c r="B18" s="6"/>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="37" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="37"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="2:7" ht="24.95" customHeight="1">
       <c r="B19" s="6"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1">
       <c r="B20" s="6"/>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1">
       <c r="B21" s="6"/>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="59"/>
+      <c r="E21" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1">
       <c r="B22" s="6"/>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37" t="s">
+      <c r="D22" s="59"/>
+      <c r="E22" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="2:7" ht="24.95" customHeight="1">
       <c r="B23" s="6"/>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="2:7" ht="24.95" customHeight="1">
       <c r="B24" s="7"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37" t="s">
+      <c r="D24" s="59"/>
+      <c r="E24" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="2:7" ht="24.95" customHeight="1">
       <c r="B25" s="7"/>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="37" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="2:7" ht="24.95" customHeight="1">
       <c r="B26" s="6"/>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37" t="s">
+      <c r="D26" s="59"/>
+      <c r="E26" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="60"/>
     </row>
     <row r="27" spans="2:7" ht="24.95" customHeight="1">
       <c r="B27" s="7"/>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:7" ht="24.95" customHeight="1">
       <c r="B28" s="6"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="37" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="2:7" ht="24.95" customHeight="1">
       <c r="B29" s="8"/>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="37"/>
+      <c r="G29" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C3:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:G12"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="C25:D25"/>
@@ -2287,6 +2360,35 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C3:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:G12"/>
+    <mergeCell ref="D7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2296,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2319,217 +2421,274 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="18">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1">
       <c r="B10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="84">
         <v>42290</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="69"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1">
       <c r="B12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="75"/>
+      <c r="C12" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="69"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="71"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="88"/>
+      <c r="C14" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+    </row>
+    <row r="18" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B18" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-    </row>
-    <row r="18" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B18" s="81" t="s">
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="78" t="s">
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+    </row>
+    <row r="20" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B20" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-    </row>
-    <row r="20" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B20" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="78" t="s">
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+    </row>
+    <row r="22" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B22" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B23" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+    </row>
+    <row r="24" spans="2:4" ht="36" customHeight="1">
+      <c r="B24" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1">
+      <c r="B25" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="105"/>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1">
+      <c r="B26" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="97"/>
+      <c r="D26" s="105"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1">
+      <c r="B27" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="105"/>
+    </row>
+    <row r="28" spans="2:4" ht="15" customHeight="1">
+      <c r="B28" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="105"/>
+    </row>
+    <row r="29" spans="2:4" ht="15" customHeight="1">
+      <c r="B29" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="97"/>
+      <c r="D29" s="105"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" customHeight="1">
+      <c r="B30" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="97"/>
+      <c r="D30" s="105"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" customHeight="1">
+      <c r="B31" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="97"/>
+      <c r="D31" s="105"/>
+    </row>
+    <row r="32" spans="2:4" ht="15" customHeight="1" thickBot="1">
+      <c r="B32" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B33" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-    </row>
-    <row r="22" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B22" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-    </row>
-    <row r="24" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B24" s="81" t="s">
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+    </row>
+    <row r="34" spans="2:4" ht="26.25" thickBot="1">
+      <c r="B34" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B25" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-    </row>
-    <row r="26" spans="2:4" ht="26.25" thickBot="1">
-      <c r="B26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="77"/>
+      <c r="C34" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="C13:D13"/>
+  <mergeCells count="31">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
@@ -2540,7 +2699,14 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Area_de_Proceso-_REQM/SOLCREQM/SOLCREQM_V1.1_2015.xlsx
+++ b/Area_de_Proceso-_REQM/SOLCREQM/SOLCREQM_V1.1_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleonardo\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_REQM\SOLCREQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_REQM\SOLCREQM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>HISTORIAL DE LAS REVISIONES</t>
   </si>
@@ -55,15 +55,6 @@
     <t>Responsable de Revisión y/o Aprobación</t>
   </si>
   <si>
-    <t>Version Preliminar</t>
-  </si>
-  <si>
-    <t>En Revisión</t>
-  </si>
-  <si>
-    <t>Manuel Saenz Tarazona</t>
-  </si>
-  <si>
     <t>SOLCREQ Solicitud de Cambios de Requerimientos</t>
   </si>
   <si>
@@ -230,12 +221,6 @@
   </si>
   <si>
     <t>UTP-GPS-ALARM</t>
-  </si>
-  <si>
-    <t>Fusionar módulos "Mapa GPS" con "Configuracion de alarma".</t>
-  </si>
-  <si>
-    <t>Al fusionar ambos modulos se aumenta la eficiencia del proceso de Ingenieria para el Desarrollo del Software solicitado por el cliente. Esta mejora generará un mayor rendimiento en el desarrollo de la aplicación y mejorará la usabilidad del mismo.</t>
   </si>
   <si>
     <t>Antecedentes de la necesidad</t>
@@ -279,6 +264,66 @@
     <t>EJR-SOFT (Analista Programador y Programadores),MST EIRL</t>
   </si>
   <si>
+    <t>Roger Apaéstegui</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Nombre de la Razón Social del Cliente</t>
+  </si>
+  <si>
+    <t>Desarrollo de Sistemas</t>
+  </si>
+  <si>
+    <t>Versión: 1.1</t>
+  </si>
+  <si>
+    <t>Roger Apaéstegui Ortega</t>
+  </si>
+  <si>
+    <t>1. PPROY_Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>2. CPROY_Cronograma del Proyecto</t>
+  </si>
+  <si>
+    <t>3. LMREQM_Lista Maestra de Requerimientos</t>
+  </si>
+  <si>
+    <t>4. MTREQM_Matriz de Trazabilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>5. Registro de Cambios en los Requerimientos</t>
+  </si>
+  <si>
+    <t>6. REGRI_Registro de Riesgos</t>
+  </si>
+  <si>
+    <t>7. TABME_Tablero de Métricas</t>
+  </si>
+  <si>
+    <t>8. FMVREQM_Ficha de Métrica de Volatilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>Manuel Sáenz Tarazona</t>
+  </si>
+  <si>
+    <t>Fusionar módulos "Mapa GPS" con "Configuración de alarma".</t>
+  </si>
+  <si>
+    <t>Al fusionar ambos módulos se aumenta la eficiencia del proceso de Ingeniería para el Desarrollo del Software solicitado por el cliente. Esta mejora generará un mayor rendimiento en el desarrollo de la aplicación y mejorará la usabilidad del mismo.</t>
+  </si>
+  <si>
+    <t>Tener muchos módulos dificultaba y aumentaba las horas hombres y los procesos de Ingeniería de manera innecesaria afectando la eficiencia de tiempo involucrado en el desarrollo del Proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este cambio generará un gran impacto en el desarrollo de la aplicación, se debe hacer los cambios y correcciones necesarias en los siguientes documentos inmediatamente después de su aprobación :  </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Se establece que el nuevo modulo se llamara : </t>
     </r>
@@ -289,71 +334,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Modulo de GPS y Configuracion.</t>
+      <t>Modulo de GPS y Configuración.</t>
     </r>
   </si>
   <si>
-    <t>Roger Apaéstegui</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>Version Preliminar aprobada por QA</t>
-  </si>
-  <si>
-    <t>Nombre de la Razón Social del Cliente</t>
-  </si>
-  <si>
-    <t>Desarrollo de Sistemas</t>
-  </si>
-  <si>
-    <t>Tener muchos modulos dificultaba y aumentaba las horas hombres y los procesos de Ingeneria de manera innecesaria afectando la eficiencia de tiempo involucrado en el desarrollo del Proyecto</t>
-  </si>
-  <si>
-    <t>Versión: 1.1</t>
-  </si>
-  <si>
-    <t>Roger Apaéstegui Ortega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este cambio generará un gran impácto en el desarrollo de la aplicación, se debe hacer los cambios y correcciones necesarias en los siguientes documentos inmediatamente después de su aprobación :  </t>
-  </si>
-  <si>
-    <t>1. PPROY_Plan de Proyecto</t>
-  </si>
-  <si>
-    <t>2. CPROY_Cronograma del Proyecto</t>
-  </si>
-  <si>
-    <t>3. LMREQM_Lista Maestra de Requerimientos</t>
-  </si>
-  <si>
-    <t>4. MTREQM_Matriz de Trazabilidad de Requerimientos</t>
-  </si>
-  <si>
-    <t>5. Registro de Cambios en los Requerimientos</t>
-  </si>
-  <si>
-    <t>6. REGRI_Registro de Riesgos</t>
-  </si>
-  <si>
-    <t>7. TABME_Tablero de Métricas</t>
-  </si>
-  <si>
-    <t>8. FMVREQM_Ficha de Métrica de Volatilidad de Requerimientos</t>
+    <t>Version Preliminar revisada por QA</t>
+  </si>
+  <si>
+    <t>Revisado</t>
+  </si>
+  <si>
+    <t>Version Final pendiente de Aprobación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1035,6 +1032,51 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1047,50 +1089,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,37 +1173,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1193,14 +1316,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1217,124 +1332,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1841,69 +1838,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:9" ht="15" customHeight="1">
-      <c r="B2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="11" t="s">
@@ -1929,71 +1926,78 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="17">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="34">
         <v>42290</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>63</v>
+      <c r="E9" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="17">
+      <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="19">
-        <v>42320</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>63</v>
+      <c r="C11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="34">
+        <v>42327</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="B6:H7"/>
     <mergeCell ref="B9:B10"/>
@@ -2003,13 +2007,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2020,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2031,327 +2028,356 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="C3" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
+      <c r="C6" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="2:9" ht="25.5">
       <c r="B7" s="2"/>
       <c r="C7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+        <v>75</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="3"/>
-      <c r="C8" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="C8" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:9" ht="7.5" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="2:9" hidden="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="2:9" hidden="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="5"/>
-      <c r="C13" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="C13" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5"/>
-      <c r="C14" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57" t="s">
+      <c r="C14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4"/>
-      <c r="C15" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
       <c r="B16" s="6"/>
-      <c r="C16" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="60"/>
+      <c r="C16" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1">
       <c r="B17" s="6"/>
-      <c r="C17" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="60"/>
+      <c r="C17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1">
       <c r="B18" s="6"/>
-      <c r="C18" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="60"/>
+      <c r="C18" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="2:7" ht="24.95" customHeight="1">
       <c r="B19" s="6"/>
-      <c r="C19" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="60"/>
+      <c r="C19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1">
       <c r="B20" s="6"/>
-      <c r="C20" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="60"/>
+      <c r="C20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1">
       <c r="B21" s="6"/>
-      <c r="C21" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="60"/>
+      <c r="C21" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1">
       <c r="B22" s="6"/>
-      <c r="C22" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7" ht="24.95" customHeight="1">
       <c r="B23" s="6"/>
-      <c r="C23" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="C23" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="2:7" ht="24.95" customHeight="1">
       <c r="B24" s="7"/>
-      <c r="C24" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="60"/>
+      <c r="C24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="2:7" ht="24.95" customHeight="1">
       <c r="B25" s="7"/>
-      <c r="C25" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="60"/>
+      <c r="C25" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:7" ht="24.95" customHeight="1">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="60"/>
+      <c r="C26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="2:7" ht="24.95" customHeight="1">
       <c r="B27" s="7"/>
-      <c r="C27" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="60"/>
+      <c r="C27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="2:7" ht="24.95" customHeight="1">
       <c r="B28" s="6"/>
-      <c r="C28" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="60"/>
+      <c r="C28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="2:7" ht="24.95" customHeight="1">
       <c r="B29" s="8"/>
-      <c r="C29" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="60"/>
+      <c r="C29" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C3:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:G12"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="C25:D25"/>
@@ -2360,35 +2386,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C3:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:G12"/>
-    <mergeCell ref="D7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2400,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2421,269 +2418,268 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="18">
-      <c r="B5" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="B6" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="69"/>
+        <v>53</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="69"/>
+        <v>55</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="71"/>
+        <v>56</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="105"/>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1">
       <c r="B10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="84">
+        <v>58</v>
+      </c>
+      <c r="C10" s="78">
         <v>42290</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="69"/>
+        <v>59</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="81"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1">
       <c r="B12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="69"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="81"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="71"/>
+        <v>62</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="100"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+    </row>
+    <row r="16" spans="1:7" ht="50.1" customHeight="1">
+      <c r="B16" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+    </row>
+    <row r="18" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B18" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+    </row>
+    <row r="20" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B20" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+    </row>
+    <row r="22" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B22" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B23" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+    </row>
+    <row r="24" spans="2:4" ht="36" customHeight="1">
+      <c r="B24" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1">
+      <c r="B25" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1">
+      <c r="B26" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1">
+      <c r="B27" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+    </row>
+    <row r="28" spans="2:4" ht="15" customHeight="1">
+      <c r="B28" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+    </row>
+    <row r="29" spans="2:4" ht="15" customHeight="1">
+      <c r="B29" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" customHeight="1">
+      <c r="B30" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="64"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-    </row>
-    <row r="16" spans="1:7" ht="50.1" customHeight="1">
-      <c r="B16" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-    </row>
-    <row r="18" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B18" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-    </row>
-    <row r="20" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B20" s="91" t="s">
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" customHeight="1">
+      <c r="B31" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-    </row>
-    <row r="22" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B22" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B23" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-    </row>
-    <row r="24" spans="2:4" ht="36" customHeight="1">
-      <c r="B24" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-    </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1">
-      <c r="B25" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="105"/>
-    </row>
-    <row r="26" spans="2:4" ht="15" customHeight="1">
-      <c r="B26" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="105"/>
-    </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1">
-      <c r="B27" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="105"/>
-    </row>
-    <row r="28" spans="2:4" ht="15" customHeight="1">
-      <c r="B28" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="105"/>
-    </row>
-    <row r="29" spans="2:4" ht="15" customHeight="1">
-      <c r="B29" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="105"/>
-    </row>
-    <row r="30" spans="2:4" ht="15" customHeight="1">
-      <c r="B30" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="105"/>
-    </row>
-    <row r="31" spans="2:4" ht="15" customHeight="1">
-      <c r="B31" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="105"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
     </row>
     <row r="32" spans="2:4" ht="15" customHeight="1" thickBot="1">
-      <c r="B32" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
+      <c r="B32" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B33" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
+      <c r="B33" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="97"/>
+      <c r="D33" s="98"/>
     </row>
     <row r="34" spans="2:4" ht="26.25" thickBot="1">
       <c r="B34" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="87"/>
+        <v>67</v>
+      </c>
+      <c r="C34" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -2700,13 +2696,14 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
